--- a/resource/40.design/440.development/[Saturn]449.crawling/23비타민미네랄.xlsx
+++ b/resource/40.design/440.development/[Saturn]449.crawling/23비타민미네랄.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecommerce\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\40.design\440.development\[Saturn]449.crawling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="19" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>상품명</t>
   </si>
@@ -106,72 +106,6 @@
   </si>
   <si>
     <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/07/29/1000002895/1000002895_main_029.jpg</t>
-  </si>
-  <si>
-    <t>라이프익스텐션 본 리스토어 120캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/07/29/1000002893/1000002893_main_094.jpg</t>
-  </si>
-  <si>
-    <t>나우푸드 비오틴 1000mcg 100베지캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/07/29/1000002892/1000002892_main_095.jpg</t>
-  </si>
-  <si>
-    <t>솔가 풀스펙트럼 오메가 120소프트젤</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/06/24/1000002879/1000002879_main_015.jpg</t>
-  </si>
-  <si>
-    <t>컨트리라이프 맥스 포 우먼 멀티비타민&amp;미네랄 120캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/06/24/1000002877/1000002877_main_039.jpg</t>
-  </si>
-  <si>
-    <t>컨트리라이프 맥스 포 맨 멀티비타민&amp;미네랄 120캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/06/24/1000002876/1000002876_main_06.jpg</t>
-  </si>
-  <si>
-    <t>나우푸드 칼슘 마그네슘 위드 비타민D 아연 240소프트젤</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/06/24/1000002874/1000002874_main_022.jpg</t>
-  </si>
-  <si>
-    <t>나우푸드 비타민B 50 250정</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/06/24/1000002872/1000002872_main_033.jpg</t>
-  </si>
-  <si>
-    <t>나우푸드 비타민 E-400 DA 250소프트젤</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/06/24/1000002871/1000002871_main_055.jpg</t>
-  </si>
-  <si>
-    <t>자로우포뮬라 글루타치온 리듀스드 500mg 120캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/05/19/1000002850/1000002850_main_085.jpg</t>
-  </si>
-  <si>
-    <t>[유통기한임박상품] 네이처스웨이 얼라이브 칼슘 본 포뮬라 1300mg 120정</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/06/24/1000002868/1000002868_main_08.jpg</t>
-  </si>
-  <si>
-    <t>네이처스웨이 얼라이브 칼슘 본 포뮬라 1300mg 60정</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/17/1000002847/1000002847_main_02.jpg</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1028,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1253,125 +1189,37 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1">
-        <v>17800</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1">
-        <v>10800</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="1">
-        <v>25000</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1">
-        <v>38500</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="1">
-        <v>38500</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="1">
-        <v>32500</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="1">
-        <v>39500</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="1">
-        <v>35000</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="1">
-        <v>59000</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="1">
-        <v>34160</v>
-      </c>
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1">
-        <v>22400</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
